--- a/data/trans_orig/P1413-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>266375</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>239921</v>
+        <v>238383</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>291837</v>
+        <v>294578</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2581846226614415</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2325440893929926</v>
+        <v>0.2310534918465869</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2828640460970688</v>
+        <v>0.2855209056075071</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>380</v>
@@ -765,19 +765,19 @@
         <v>387058</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>354102</v>
+        <v>355145</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>420970</v>
+        <v>419320</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2943154894936484</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2692556349467616</v>
+        <v>0.2700489859652721</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3201015133508613</v>
+        <v>0.3188473380257185</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>654</v>
@@ -786,19 +786,19 @@
         <v>653433</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>607927</v>
+        <v>613270</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>695901</v>
+        <v>697846</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2784315295895243</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2590411533213103</v>
+        <v>0.2613180935100423</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2965275341728201</v>
+        <v>0.297356342635575</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>765348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>739886</v>
+        <v>737145</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>791802</v>
+        <v>793340</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7418153773385585</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7171359539029313</v>
+        <v>0.7144790943924929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7674559106070074</v>
+        <v>0.7689465081534131</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>911</v>
@@ -836,19 +836,19 @@
         <v>928055</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>894143</v>
+        <v>895793</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>961011</v>
+        <v>959968</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7056845105063515</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6798984866491389</v>
+        <v>0.6811526619742813</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7307443650532388</v>
+        <v>0.7299510140347272</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1675</v>
@@ -857,19 +857,19 @@
         <v>1693402</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1650934</v>
+        <v>1648989</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1738908</v>
+        <v>1733565</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7215684704104758</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7034724658271798</v>
+        <v>0.702643657364425</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7409588466786897</v>
+        <v>0.7386819064899578</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>203174</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>179036</v>
+        <v>177994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231210</v>
+        <v>231636</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1199788152730136</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1057248829908112</v>
+        <v>0.1051094112289325</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1365351159474592</v>
+        <v>0.1367864466799748</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>211</v>
@@ -982,19 +982,19 @@
         <v>214119</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>187267</v>
+        <v>190674</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>242279</v>
+        <v>242578</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1348637155829764</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1179503882008299</v>
+        <v>0.1200962737017169</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1525998257695533</v>
+        <v>0.1527884875190308</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>415</v>
@@ -1003,19 +1003,19 @@
         <v>417293</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>383110</v>
+        <v>383032</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>456017</v>
+        <v>454662</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1271814176799984</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1167631752159014</v>
+        <v>0.1167392641211655</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1389835515629134</v>
+        <v>0.1385706104099175</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1490239</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1462203</v>
+        <v>1461777</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1514377</v>
+        <v>1515419</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8800211847269864</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8634648840525407</v>
+        <v>0.8632135533200253</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8942751170091888</v>
+        <v>0.8948905887710675</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1343</v>
@@ -1053,19 +1053,19 @@
         <v>1373554</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1345394</v>
+        <v>1345095</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1400406</v>
+        <v>1396999</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8651362844170236</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8474001742304466</v>
+        <v>0.8472115124809695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8820496117991701</v>
+        <v>0.8799037262982838</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2788</v>
@@ -1074,19 +1074,19 @@
         <v>2863793</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2825069</v>
+        <v>2826424</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2897976</v>
+        <v>2898054</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8728185823200016</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.861016448437087</v>
+        <v>0.8614293895900825</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8832368247840986</v>
+        <v>0.8832607358788346</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>60700</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46774</v>
+        <v>48175</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76637</v>
+        <v>77143</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1100816507445643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08482568582390436</v>
+        <v>0.0873672988628981</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1389848541124994</v>
+        <v>0.1399020527811434</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -1199,19 +1199,19 @@
         <v>49041</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36214</v>
+        <v>36899</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64317</v>
+        <v>62780</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.102938583310337</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07601369727527793</v>
+        <v>0.07745171265943684</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1350022630591524</v>
+        <v>0.1317763967054652</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>107</v>
@@ -1220,19 +1220,19 @@
         <v>109741</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91953</v>
+        <v>92018</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130463</v>
+        <v>132886</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1067707190025057</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08946439761961268</v>
+        <v>0.08952706961721506</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1269314677568793</v>
+        <v>0.1292888026895338</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>490708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>474771</v>
+        <v>474265</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>504634</v>
+        <v>503233</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8899183492554358</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8610151458875006</v>
+        <v>0.8600979472188568</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9151743141760956</v>
+        <v>0.9126327011371019</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>405</v>
@@ -1270,19 +1270,19 @@
         <v>427371</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>412095</v>
+        <v>413632</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>440198</v>
+        <v>439513</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.897061416689663</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8649977369408476</v>
+        <v>0.8682236032945349</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.923986302724722</v>
+        <v>0.9225482873405632</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>872</v>
@@ -1291,19 +1291,19 @@
         <v>918079</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>897357</v>
+        <v>894934</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>935867</v>
+        <v>935802</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8932292809974943</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8730685322431208</v>
+        <v>0.8707111973104664</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9105356023803873</v>
+        <v>0.910472930382785</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>530248</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>486494</v>
+        <v>493007</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>574118</v>
+        <v>577396</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.161831676252726</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1484779204118798</v>
+        <v>0.1504657268873401</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1752205520105942</v>
+        <v>0.1762209470458292</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>638</v>
@@ -1416,19 +1416,19 @@
         <v>650219</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>603165</v>
+        <v>604311</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>695624</v>
+        <v>696819</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1924180749738701</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1784936176616126</v>
+        <v>0.1788327100148702</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2058547955038011</v>
+        <v>0.2062084375556609</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1176</v>
@@ -1437,19 +1437,19 @@
         <v>1180467</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1118387</v>
+        <v>1114031</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1246914</v>
+        <v>1235946</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1773607483701837</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.168033460816211</v>
+        <v>0.1673790186796687</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1873441785768108</v>
+        <v>0.1856962932207405</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2746295</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2702425</v>
+        <v>2699147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2790049</v>
+        <v>2783536</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8381683237472739</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8247794479894057</v>
+        <v>0.8237790529541708</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8515220795881202</v>
+        <v>0.8495342731126598</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2659</v>
@@ -1487,19 +1487,19 @@
         <v>2728978</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2683573</v>
+        <v>2682378</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2776032</v>
+        <v>2774886</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8075819250261298</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7941452044961991</v>
+        <v>0.7937915624443391</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8215063823383875</v>
+        <v>0.8211672899851298</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5335</v>
@@ -1508,19 +1508,19 @@
         <v>5475274</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5408827</v>
+        <v>5419795</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5537354</v>
+        <v>5541710</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8226392516298163</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8126558214231888</v>
+        <v>0.8143037067792593</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.831966539183789</v>
+        <v>0.832620981320331</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>153014</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130878</v>
+        <v>130626</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>176217</v>
+        <v>175956</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1569945756766546</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1342833477461338</v>
+        <v>0.134024046848813</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1808017507156637</v>
+        <v>0.1805333560152509</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>337</v>
@@ -1872,19 +1872,19 @@
         <v>360566</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>327747</v>
+        <v>329621</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>393356</v>
+        <v>396143</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2695222472803696</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2449903905949413</v>
+        <v>0.2463905760290181</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2940327873266866</v>
+        <v>0.29611608016723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>481</v>
@@ -1893,19 +1893,19 @@
         <v>513580</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>473194</v>
+        <v>478135</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>555258</v>
+        <v>560439</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2220942795782931</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2046299417482518</v>
+        <v>0.2067664985280991</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2401177352166664</v>
+        <v>0.2423581048956636</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>821629</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>798426</v>
+        <v>798687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>843765</v>
+        <v>844017</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8430054243233455</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8191982492843364</v>
+        <v>0.8194666439847491</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.865716652253866</v>
+        <v>0.8659759531511857</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>910</v>
@@ -1943,19 +1943,19 @@
         <v>977231</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>944441</v>
+        <v>941654</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1010050</v>
+        <v>1008176</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7304777527196304</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7059672126733133</v>
+        <v>0.7038839198327701</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7550096094050586</v>
+        <v>0.753609423970982</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1674</v>
@@ -1964,19 +1964,19 @@
         <v>1798860</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1757182</v>
+        <v>1752001</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1839246</v>
+        <v>1834305</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7779057204217069</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7598822647833336</v>
+        <v>0.7576418951043363</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7953700582517482</v>
+        <v>0.793233501471901</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>132586</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>110249</v>
+        <v>109402</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>159241</v>
+        <v>155751</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06750961673943336</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05613640538009637</v>
+        <v>0.05570500839226138</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08108187347770905</v>
+        <v>0.07930458646395568</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>212</v>
@@ -2089,19 +2089,19 @@
         <v>233855</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>205140</v>
+        <v>205166</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>260507</v>
+        <v>265139</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1332818895452301</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1169163153744042</v>
+        <v>0.1169309740574165</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1484718316813868</v>
+        <v>0.1511115037284604</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>335</v>
@@ -2110,19 +2110,19 @@
         <v>366441</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>331211</v>
+        <v>326378</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>402961</v>
+        <v>406905</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09854416582986499</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08907003959302191</v>
+        <v>0.08777023326417692</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.108365085560359</v>
+        <v>0.1094256176946159</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1831371</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1804716</v>
+        <v>1808206</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1853708</v>
+        <v>1854555</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9324903832605667</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9189181265222909</v>
+        <v>0.9206954135360443</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9438635946199035</v>
+        <v>0.9442949916077387</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1421</v>
@@ -2160,19 +2160,19 @@
         <v>1520737</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1494085</v>
+        <v>1489453</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1549452</v>
+        <v>1549426</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.86671811045477</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8515281683186132</v>
+        <v>0.8488884962715397</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8830836846255958</v>
+        <v>0.8830690259425835</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3154</v>
@@ -2181,19 +2181,19 @@
         <v>3352108</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3315588</v>
+        <v>3311644</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3387338</v>
+        <v>3392171</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.901455834170135</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8916349144396409</v>
+        <v>0.8905743823053842</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.910929960406978</v>
+        <v>0.9122297667358232</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>22627</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14109</v>
+        <v>13637</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34668</v>
+        <v>34031</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04702375646405358</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02932168688399269</v>
+        <v>0.02834095063956541</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07204782872117872</v>
+        <v>0.07072390820298055</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -2306,19 +2306,19 @@
         <v>51125</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37969</v>
+        <v>36676</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67054</v>
+        <v>68803</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1114724292862534</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08278694337977061</v>
+        <v>0.07996790917527126</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1462050210040943</v>
+        <v>0.1500183475798351</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -2327,19 +2327,19 @@
         <v>73752</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57054</v>
+        <v>59086</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93011</v>
+        <v>95726</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07847488540435638</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06070760622203938</v>
+        <v>0.06287011618403202</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09896716819307963</v>
+        <v>0.1018567905292682</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>458554</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>446513</v>
+        <v>447150</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>467072</v>
+        <v>467544</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9529762435359465</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9279521712788216</v>
+        <v>0.9292760917970193</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9706783131160075</v>
+        <v>0.9716590493604346</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>368</v>
@@ -2377,19 +2377,19 @@
         <v>407506</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>391577</v>
+        <v>389828</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>420662</v>
+        <v>421955</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8885275707137467</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8537949789959057</v>
+        <v>0.8499816524201649</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9172130566202293</v>
+        <v>0.9200320908247288</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>786</v>
@@ -2398,19 +2398,19 @@
         <v>866061</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>846802</v>
+        <v>844087</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>882759</v>
+        <v>880727</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9215251145956436</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9010328318069203</v>
+        <v>0.8981432094707318</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9392923937779604</v>
+        <v>0.937129883815968</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>308227</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>275156</v>
+        <v>273659</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>341519</v>
+        <v>342408</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09013049650805617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08046014551112408</v>
+        <v>0.08002228233722611</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09986577553951972</v>
+        <v>0.1001257153685191</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>593</v>
@@ -2523,19 +2523,19 @@
         <v>645546</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>601691</v>
+        <v>597606</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>697594</v>
+        <v>694326</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1817917264138173</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1694416295981986</v>
+        <v>0.1682913201889989</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1964489024773666</v>
+        <v>0.1955285488015359</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>880</v>
@@ -2544,19 +2544,19 @@
         <v>953773</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>891855</v>
+        <v>896979</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1016195</v>
+        <v>1018598</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1368239546643216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1279415043518907</v>
+        <v>0.1286766355927258</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.145778820048468</v>
+        <v>0.1461234626313431</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3111555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3078263</v>
+        <v>3077374</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3144626</v>
+        <v>3146123</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9098695034919438</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9001342244604803</v>
+        <v>0.899874284631481</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.919539854488876</v>
+        <v>0.9199777176627739</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2699</v>
@@ -2594,19 +2594,19 @@
         <v>2905474</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2853426</v>
+        <v>2856694</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2949329</v>
+        <v>2953414</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8182082735861826</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8035510975226335</v>
+        <v>0.8044714511984641</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8305583704018015</v>
+        <v>0.8317086798110012</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5614</v>
@@ -2615,19 +2615,19 @@
         <v>6017028</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5954606</v>
+        <v>5952203</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6078946</v>
+        <v>6073822</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8631760453356784</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.854221179951532</v>
+        <v>0.8538765373686565</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8720584956481093</v>
+        <v>0.8713233644072741</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>99912</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>83900</v>
+        <v>82725</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>119929</v>
+        <v>117878</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1324484831190843</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1112219642056418</v>
+        <v>0.1096650309876182</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1589833615654893</v>
+        <v>0.1562651793025949</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>197</v>
@@ -2979,19 +2979,19 @@
         <v>225642</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>196028</v>
+        <v>193343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>252785</v>
+        <v>256077</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2268538214675372</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1970801961155382</v>
+        <v>0.1943811249257608</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2541418839046886</v>
+        <v>0.2574522626638619</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>299</v>
@@ -3000,19 +3000,19 @@
         <v>325555</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>289347</v>
+        <v>291281</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>359536</v>
+        <v>360568</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1861367947184265</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1654348827872324</v>
+        <v>0.1665410420858947</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.205565766580004</v>
+        <v>0.2061559764624617</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>654435</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>634418</v>
+        <v>636469</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>670447</v>
+        <v>671622</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8675515168809157</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8410166384345108</v>
+        <v>0.8437348206974055</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8887780357943582</v>
+        <v>0.8903349690123817</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>695</v>
@@ -3050,19 +3050,19 @@
         <v>769018</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>741875</v>
+        <v>738583</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>798632</v>
+        <v>801317</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7731461785324628</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7458581160953116</v>
+        <v>0.7425477373361392</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.802919803884462</v>
+        <v>0.8056188750742392</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1355</v>
@@ -3071,19 +3071,19 @@
         <v>1423452</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1389471</v>
+        <v>1388439</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1459660</v>
+        <v>1457726</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8138632052815735</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.794434233419996</v>
+        <v>0.7938440235375384</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8345651172127676</v>
+        <v>0.8334589579141054</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>142977</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>119276</v>
+        <v>120297</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>168578</v>
+        <v>166556</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06885838990440722</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05744400758882341</v>
+        <v>0.05793578830519665</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08118805041621743</v>
+        <v>0.08021441891592344</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>208</v>
@@ -3196,19 +3196,19 @@
         <v>226667</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>199640</v>
+        <v>197470</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>260251</v>
+        <v>258248</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1140005608082108</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1004075861517495</v>
+        <v>0.09931615903068211</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1308912254356468</v>
+        <v>0.1298839066600519</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>340</v>
@@ -3217,19 +3217,19 @@
         <v>369644</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>336323</v>
+        <v>329505</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>412215</v>
+        <v>407078</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09094034229786435</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0827425762369806</v>
+        <v>0.08106530000083302</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1014136881977273</v>
+        <v>0.1001498557862285</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1933408</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1907807</v>
+        <v>1909829</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1957109</v>
+        <v>1956088</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9311416100955928</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9188119495837827</v>
+        <v>0.9197855810840766</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9425559924111766</v>
+        <v>0.9420642116948034</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1700</v>
@@ -3267,19 +3267,19 @@
         <v>1761633</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1728049</v>
+        <v>1730052</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1788660</v>
+        <v>1790830</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8859994391917893</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8691087745643531</v>
+        <v>0.8701160933399481</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8995924138482505</v>
+        <v>0.9006838409693178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3520</v>
@@ -3288,19 +3288,19 @@
         <v>3695041</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3652470</v>
+        <v>3657607</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3728362</v>
+        <v>3735180</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9090596577021357</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8985863118022727</v>
+        <v>0.8998501442137715</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9172574237630193</v>
+        <v>0.9189346999991668</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>34600</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23028</v>
+        <v>24493</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47769</v>
+        <v>50070</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06326684487867887</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0421074068822764</v>
+        <v>0.0447855876307771</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08734637604806801</v>
+        <v>0.09155490349784078</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -3413,19 +3413,19 @@
         <v>39392</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28660</v>
+        <v>27863</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53033</v>
+        <v>52585</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07173311209618159</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05219022609230931</v>
+        <v>0.05073998520793666</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09657497715016053</v>
+        <v>0.09575949479440181</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -3434,19 +3434,19 @@
         <v>73991</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58089</v>
+        <v>57279</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94126</v>
+        <v>91925</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06750868456229479</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05299970813712741</v>
+        <v>0.05226013238058343</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08587911947822154</v>
+        <v>0.08387101998852033</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>512286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>499117</v>
+        <v>496816</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>523858</v>
+        <v>522393</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9367331551213212</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9126536239519318</v>
+        <v>0.9084450965021593</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9578925931177235</v>
+        <v>0.955214412369223</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>489</v>
@@ -3484,19 +3484,19 @@
         <v>509748</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>496107</v>
+        <v>496555</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>520480</v>
+        <v>521277</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9282668879038184</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9034250228498395</v>
+        <v>0.9042405052055982</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9478097739076906</v>
+        <v>0.9492600147920632</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>961</v>
@@ -3505,19 +3505,19 @@
         <v>1022036</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1001901</v>
+        <v>1004102</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1037938</v>
+        <v>1038748</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9324913154377052</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9141208805217784</v>
+        <v>0.9161289800114797</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9470002918628726</v>
+        <v>0.9477398676194165</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>277488</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>246784</v>
+        <v>248449</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>310829</v>
+        <v>311937</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08215505182092765</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07306453796894226</v>
+        <v>0.0735575753220586</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09202611011557287</v>
+        <v>0.09235403015499755</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>442</v>
@@ -3630,19 +3630,19 @@
         <v>491701</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>452219</v>
+        <v>450757</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>533978</v>
+        <v>539727</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1392093227833814</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1280312977304283</v>
+        <v>0.1276173821933716</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1511785687149795</v>
+        <v>0.1528062343750435</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>705</v>
@@ -3651,19 +3651,19 @@
         <v>769190</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>715470</v>
+        <v>718610</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>823625</v>
+        <v>829826</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1113199770075892</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1035455254445942</v>
+        <v>0.1039999188632706</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.119198109594627</v>
+        <v>0.1200955567146982</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3100130</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3066789</v>
+        <v>3065681</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3130834</v>
+        <v>3129169</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9178449481790724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9079738898844272</v>
+        <v>0.9076459698450025</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9269354620310578</v>
+        <v>0.9264424246779414</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2884</v>
@@ -3701,19 +3701,19 @@
         <v>3040399</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2998122</v>
+        <v>2992373</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3079881</v>
+        <v>3081343</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8607906772166186</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8488214312850197</v>
+        <v>0.8471937656249565</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8719687022695717</v>
+        <v>0.8723826178066276</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5836</v>
@@ -3722,19 +3722,19 @@
         <v>6140528</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6086093</v>
+        <v>6079892</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6194248</v>
+        <v>6191108</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8886800229924108</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8808018904053729</v>
+        <v>0.879904443285302</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8964544745554057</v>
+        <v>0.8960000811367296</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>182484</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>163325</v>
+        <v>161546</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>205042</v>
+        <v>203086</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3159668774340101</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2827939327148518</v>
+        <v>0.2797128474430651</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3550250736562216</v>
+        <v>0.3516377842979067</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>759</v>
@@ -4086,19 +4086,19 @@
         <v>423385</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>396992</v>
+        <v>401936</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>443730</v>
+        <v>444525</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5154960266262109</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4833619610664833</v>
+        <v>0.4893810138093404</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5402676058951021</v>
+        <v>0.5412354886912163</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1004</v>
@@ -4107,19 +4107,19 @@
         <v>605869</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>574306</v>
+        <v>570319</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>639257</v>
+        <v>634643</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4331170233924733</v>
+        <v>0.4331170233924731</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4105539441758042</v>
+        <v>0.4077038645923649</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4569855205729693</v>
+        <v>0.4536870194120799</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>395058</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>372500</v>
+        <v>374456</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>414217</v>
+        <v>415996</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6840331225659898</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6449749263437783</v>
+        <v>0.6483622157020935</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7172060672851481</v>
+        <v>0.720287152556935</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>667</v>
@@ -4157,19 +4157,19 @@
         <v>397930</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>377585</v>
+        <v>376790</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>424323</v>
+        <v>419379</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4845039733737891</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4597323941048978</v>
+        <v>0.4587645113087837</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5166380389335171</v>
+        <v>0.5106189861906596</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1112</v>
@@ -4178,19 +4178,19 @@
         <v>792988</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>759600</v>
+        <v>764214</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>824551</v>
+        <v>828538</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.566882976607527</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5430144794270306</v>
+        <v>0.54631298058792</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5894460558241957</v>
+        <v>0.592296135407635</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>376094</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>341870</v>
+        <v>342655</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>417200</v>
+        <v>412165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1689265357063048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1535544943463784</v>
+        <v>0.1539070030315526</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.187389827646472</v>
+        <v>0.1851282641030824</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>823</v>
@@ -4303,19 +4303,19 @@
         <v>557216</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>522779</v>
+        <v>521603</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>596689</v>
+        <v>595056</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2568568031870806</v>
+        <v>0.2568568031870807</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2409826587138441</v>
+        <v>0.2404403288652675</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2750525555382582</v>
+        <v>0.2742994490517134</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1214</v>
@@ -4324,19 +4324,19 @@
         <v>933310</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>877890</v>
+        <v>879455</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>985815</v>
+        <v>988036</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.212321483030527</v>
+        <v>0.2123214830305269</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1997138985540002</v>
+        <v>0.2000699930084665</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2242659478853815</v>
+        <v>0.2247712702070924</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1850280</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1809174</v>
+        <v>1814209</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1884504</v>
+        <v>1883719</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8310734642936953</v>
+        <v>0.8310734642936952</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8126101723535281</v>
+        <v>0.8148717358969176</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8464455056536218</v>
+        <v>0.8460929969684478</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2095</v>
@@ -4374,19 +4374,19 @@
         <v>1612149</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1572676</v>
+        <v>1574309</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1646586</v>
+        <v>1647762</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7431431968129194</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.724947444461742</v>
+        <v>0.7257005509482864</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7590173412861558</v>
+        <v>0.7595596711347324</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3693</v>
@@ -4395,19 +4395,19 @@
         <v>3462429</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3409924</v>
+        <v>3407703</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3517849</v>
+        <v>3516284</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.787678516969473</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7757340521146187</v>
+        <v>0.7752287297929075</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8002861014460002</v>
+        <v>0.7999300069915335</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>91426</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73694</v>
+        <v>76096</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110776</v>
+        <v>109976</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1286961850370299</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1037360129396635</v>
+        <v>0.1071169032205724</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1559335388227756</v>
+        <v>0.1548080417967898</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>234</v>
@@ -4520,19 +4520,19 @@
         <v>159276</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>139973</v>
+        <v>141313</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>179382</v>
+        <v>180397</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2169395963409267</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1906480740090075</v>
+        <v>0.1924732988437316</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2443245769422245</v>
+        <v>0.245707278273085</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>331</v>
@@ -4541,19 +4541,19 @@
         <v>250702</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>225876</v>
+        <v>225161</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>281349</v>
+        <v>276373</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1735445466563076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1563588044351751</v>
+        <v>0.1558644684981079</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1947591406420733</v>
+        <v>0.1913145336610079</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>618977</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>599627</v>
+        <v>600427</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>636709</v>
+        <v>634307</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8713038149629699</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8440664611772228</v>
+        <v>0.8451919582032099</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8962639870603361</v>
+        <v>0.8928830967794273</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>769</v>
@@ -4591,19 +4591,19 @@
         <v>574919</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>554813</v>
+        <v>553798</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>594222</v>
+        <v>592882</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7830604036590734</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7556754230577756</v>
+        <v>0.754292721726915</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8093519259909924</v>
+        <v>0.8075267011562685</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1352</v>
@@ -4612,19 +4612,19 @@
         <v>1193896</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1163249</v>
+        <v>1168225</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1218722</v>
+        <v>1219437</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8264554533436924</v>
+        <v>0.8264554533436925</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8052408593579273</v>
+        <v>0.8086854663389922</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.843641195564825</v>
+        <v>0.8441355315018919</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>650004</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>599448</v>
+        <v>601172</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>696448</v>
+        <v>698131</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1849587196963112</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1705729705364014</v>
+        <v>0.1710634507347604</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1981744564263097</v>
+        <v>0.1986531973081746</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1816</v>
@@ -4737,19 +4737,19 @@
         <v>1139877</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1088557</v>
+        <v>1096444</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1182019</v>
+        <v>1188359</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3060174647908123</v>
+        <v>0.3060174647908124</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2922399859537096</v>
+        <v>0.2943573311137051</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.317331111726236</v>
+        <v>0.3190331658280807</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2549</v>
@@ -4758,19 +4758,19 @@
         <v>1789881</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1722721</v>
+        <v>1727944</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1861764</v>
+        <v>1863439</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2472486245052564</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.237971338086466</v>
+        <v>0.2386928049023783</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2571782976644261</v>
+        <v>0.2574097986455834</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2864315</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2817871</v>
+        <v>2816188</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2914871</v>
+        <v>2913147</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8150412803036887</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8018255435736903</v>
+        <v>0.8013468026918256</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8294270294635985</v>
+        <v>0.8289365492652401</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3531</v>
@@ -4808,19 +4808,19 @@
         <v>2584998</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2542856</v>
+        <v>2536516</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2636318</v>
+        <v>2628431</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6939825352091876</v>
+        <v>0.6939825352091877</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6826688882737646</v>
+        <v>0.6809668341719193</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7077600140462909</v>
+        <v>0.7056426688862949</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6157</v>
@@ -4829,19 +4829,19 @@
         <v>5449313</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5377430</v>
+        <v>5375755</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5516473</v>
+        <v>5511250</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7527513754947438</v>
+        <v>0.7527513754947437</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7428217023355742</v>
+        <v>0.7425902013544164</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7620286619135346</v>
+        <v>0.7613071950976216</v>
       </c>
     </row>
     <row r="15">
